--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -609,17 +609,18 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp
+          <t>Grangråticka
+Koppartaggsvamp
 Barrviolspindling
 Blå taggsvamp
 Flattoppad klubbsvamp
@@ -671,7 +672,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +758,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +815,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +872,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -928,7 +929,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +986,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1043,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1100,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1157,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1214,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1385,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -634,7 +634,8 @@
 Fjällig taggsvamp s.str.
 Grön sköldmossa
 Grönpyrola
-Svavelriska</t>
+Svavelriska
+Blåsippa</t>
         </is>
       </c>
       <c r="S2">
@@ -672,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -815,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -872,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -929,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1043,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1100,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1157,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1214,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1271,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1328,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1385,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/artfynd/A 33062-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/artfynd/A 33062-2023.xlsx", "A 33062-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/kartor/A 33062-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/kartor/A 33062-2023.png", "A 33062-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomål/A 33062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomål/A 33062-2023.docx", "A 33062-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomålsmail/A 33062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomålsmail/A 33062-2023.docx", "A 33062-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsyn/A 33062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsyn/A 33062-2023.docx", "A 33062-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsynsmail/A 33062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsynsmail/A 33062-2023.docx", "A 33062-2023")</f>
         <v/>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,27 +725,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/artfynd/A 1061-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/artfynd/A 1061-2022.xlsx", "A 1061-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/kartor/A 1061-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/kartor/A 1061-2022.png", "A 1061-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomål/A 1061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomål/A 1061-2022.docx", "A 1061-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomålsmail/A 1061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/klagomålsmail/A 1061-2022.docx", "A 1061-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsyn/A 1061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsyn/A 1061-2022.docx", "A 1061-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsynsmail/A 1061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS_VASBY/tillsynsmail/A 1061-2022.docx", "A 1061-2022")</f>
         <v/>
       </c>
     </row>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45113</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43508</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43678</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44571</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44613</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
